--- a/data/20241003_API명세서.xlsx
+++ b/data/20241003_API명세서.xlsx
@@ -6,12 +6,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\desktop\Spring\BoostCourse\ch2\ch2과제\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\desktop\Spring\BoostCourse\ch2\Assignment2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C089C22-0CCD-4815-A83C-395E6E322F7B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DEE0A16-E092-4ABD-992A-FE8514CA1441}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5475" yWindow="780" windowWidth="18960" windowHeight="13950" xr2:uid="{1B479B27-0691-4B75-8324-39D390C28ACB}"/>
+    <workbookView xWindow="6885" yWindow="975" windowWidth="18090" windowHeight="13665" xr2:uid="{1B479B27-0691-4B75-8324-39D390C28ACB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>URI</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -77,10 +77,6 @@
   </si>
   <si>
     <t>새로운 할 일 등록</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/addtask</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -772,7 +768,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -826,13 +822,13 @@
       <c r="C2" s="3"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I2" s="8"/>
     </row>
@@ -846,13 +842,13 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="8"/>

--- a/data/20241003_API명세서.xlsx
+++ b/data/20241003_API명세서.xlsx
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\desktop\Spring\BoostCourse\ch2\Assignment2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DEE0A16-E092-4ABD-992A-FE8514CA1441}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633BDE70-FE87-46E6-AB25-A9AEFCA299E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6885" yWindow="975" windowWidth="18090" windowHeight="13665" xr2:uid="{1B479B27-0691-4B75-8324-39D390C28ACB}"/>
   </bookViews>
@@ -768,7 +768,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>

--- a/data/20241003_API명세서.xlsx
+++ b/data/20241003_API명세서.xlsx
@@ -9,9 +9,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\desktop\Spring\BoostCourse\ch2\Assignment2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633BDE70-FE87-46E6-AB25-A9AEFCA299E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD125DD3-F82C-416C-B91A-F8A355DB49B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6885" yWindow="975" windowWidth="18090" windowHeight="13665" xr2:uid="{1B479B27-0691-4B75-8324-39D390C28ACB}"/>
+    <workbookView xWindow="8340" yWindow="1140" windowWidth="18090" windowHeight="13665" xr2:uid="{1B479B27-0691-4B75-8324-39D390C28ACB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -80,15 +80,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{
-  "title" : "title",
-  "owner": "김김김",
-  "priority" : 3,
-  "date" : "2024.04.11 18:24" //시간까지
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>/task</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -107,6 +98,15 @@
       //... 
   ],
   "done" : []
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "title" : "title",
+  "owner": "김김김",
+  "priority" : 3,
+  "date" : "2024.04.11",
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -822,13 +822,13 @@
       <c r="C2" s="3"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I2" s="8"/>
     </row>
@@ -842,13 +842,13 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="8"/>

--- a/data/20241003_API명세서.xlsx
+++ b/data/20241003_API명세서.xlsx
@@ -9,9 +9,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\desktop\Spring\BoostCourse\ch2\Assignment2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD125DD3-F82C-416C-B91A-F8A355DB49B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5592E344-6A2B-459C-BB87-6EE48734A1A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8340" yWindow="1140" windowWidth="18090" windowHeight="13665" xr2:uid="{1B479B27-0691-4B75-8324-39D390C28ACB}"/>
+    <workbookView xWindow="-5985" yWindow="5535" windowWidth="24210" windowHeight="15750" xr2:uid="{1B479B27-0691-4B75-8324-39D390C28ACB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -105,8 +105,7 @@
     <t>{
   "title" : "title",
   "owner": "김김김",
-  "priority" : 3,
-  "date" : "2024.04.11",
+  "priority" : 3
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -832,7 +831,7 @@
       </c>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:9" ht="76.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="63.75" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="2" t="s">
         <v>11</v>
